--- a/Life Of Day요구사항분석서.xlsx
+++ b/Life Of Day요구사항분석서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.83.44230"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.88.44548"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -537,6 +537,30 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>LOD 자체 점수 통계 함수 작성</t>
+  </si>
+  <si>
+    <t>-코로나 예방접종, 발생현황, 미세먼지, 날씨 , 주식/코인 정보 제공</t>
+  </si>
+  <si>
+    <t>-메뉴는 총 3개로 코로나 메뉴, 날씨 메뉴, 주식/코인 메뉴로 나뉨</t>
+  </si>
+  <si>
+    <t>각 메뉴별로 대시보드가 있으며,</t>
+  </si>
+  <si>
+    <t>각 메뉴별로 대시보드가 있으며, 상세 보기를 누르면 상세 정보가 제공됨</t>
+  </si>
+  <si>
+    <t>-상세 보기를 누르면 별도의 폼()</t>
+  </si>
+  <si>
+    <t>-상세 보기를 누르면 별도의 창이 나옴</t>
   </si>
 </sst>
 </file>
@@ -2273,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="D16" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3132,8 +3156,8 @@
       <c r="B31" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="88">
-        <v>8</v>
+      <c r="C31" s="88" t="s">
+        <v>170</v>
       </c>
       <c r="D31" s="88"/>
       <c r="E31" s="87"/>
@@ -3275,10 +3299,10 @@
         <v>7</v>
       </c>
       <c r="G36" s="158" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="H36" s="109" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I36" s="153"/>
       <c r="J36" s="153"/>
@@ -3323,10 +3347,10 @@
       </c>
       <c r="F38" s="155"/>
       <c r="G38" s="158" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="H38" s="109" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="I38" s="153"/>
       <c r="J38" s="153"/>
@@ -3722,7 +3746,7 @@
         <v>112</v>
       </c>
       <c r="H56" s="109" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I56" s="153"/>
       <c r="J56" s="153"/>

--- a/Life Of Day요구사항분석서.xlsx
+++ b/Life Of Day요구사항분석서.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -561,6 +561,87 @@
   </si>
   <si>
     <t>-상세 보기를 누르면 별도의 창이 나옴</t>
+  </si>
+  <si>
+    <t>코로나</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>1.오늘 확진자</t>
+  </si>
+  <si>
+    <t>2.누적 확진자</t>
+  </si>
+  <si>
+    <t>3.오늘 사망자</t>
+  </si>
+  <si>
+    <t>4.누적 사망자</t>
+  </si>
+  <si>
+    <t>5.오늘 검사자</t>
+  </si>
+  <si>
+    <t>6.누적 검사자</t>
+  </si>
+  <si>
+    <t>1.오늘 1차 접종자</t>
+  </si>
+  <si>
+    <t>2.누적 1차 접종자</t>
+  </si>
+  <si>
+    <t>3.오늘 2차 접종(접종 완료)</t>
+  </si>
+  <si>
+    <t>4.누적 2차 접종(접종 완료)</t>
+  </si>
+  <si>
+    <t>1.지역명</t>
+  </si>
+  <si>
+    <t>2.지역 오늘 확진자</t>
+  </si>
+  <si>
+    <t>3.지역 누적 확진자</t>
+  </si>
+  <si>
+    <t>4.지역 오늘 1차 접종자</t>
+  </si>
+  <si>
+    <t>4.지역 누적 1차 접종자</t>
+  </si>
+  <si>
+    <t>5.지역 오늘 2차 접종자</t>
+  </si>
+  <si>
+    <t>5.지역 누적 2차 접종자</t>
+  </si>
+  <si>
+    <t>날씨</t>
+  </si>
+  <si>
+    <t>1.지역별 온도(7일)</t>
+  </si>
+  <si>
+    <t>2.지역별 습도(7일)</t>
+  </si>
+  <si>
+    <t>3.지역별 강수량(7일)</t>
+  </si>
+  <si>
+    <t>4.지역별 미세먼지(7일)</t>
+  </si>
+  <si>
+    <t>5.지역별 초미세먼지(7일)</t>
+  </si>
+  <si>
+    <t>6.지역별 날씨 그림기호</t>
+  </si>
+  <si>
+    <t>7.지역별 오전 오후</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,6 +2056,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="64" fontId="0" fillId="38" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2297,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="D28" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3422,9 +3506,9 @@
         <v>8</v>
       </c>
       <c r="H41" s="88"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
       <c r="L41" s="153"/>
       <c r="M41" s="153"/>
       <c r="N41" s="153"/>
@@ -3440,9 +3524,9 @@
       <c r="F42" s="157"/>
       <c r="G42" s="157"/>
       <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
       <c r="L42" s="157"/>
       <c r="M42" s="157"/>
       <c r="N42" s="157"/>
@@ -3464,9 +3548,9 @@
       <c r="H43" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
       <c r="L43" s="153"/>
       <c r="M43" s="153"/>
       <c r="N43" s="153"/>
@@ -3486,9 +3570,9 @@
       </c>
       <c r="G44" s="89"/>
       <c r="H44" s="156"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
       <c r="L44" s="153"/>
       <c r="M44" s="153"/>
       <c r="N44" s="153"/>
@@ -3508,9 +3592,9 @@
       </c>
       <c r="G45" s="88"/>
       <c r="H45" s="155"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168"/>
       <c r="L45" s="153"/>
       <c r="M45" s="153"/>
       <c r="N45" s="153"/>
@@ -3534,9 +3618,9 @@
       <c r="H46" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
       <c r="L46" s="153"/>
       <c r="M46" s="153"/>
       <c r="N46" s="153"/>
@@ -3554,9 +3638,9 @@
       <c r="F47" s="155"/>
       <c r="G47" s="158"/>
       <c r="H47" s="114"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="168"/>
       <c r="L47" s="153"/>
       <c r="M47" s="153"/>
       <c r="N47" s="153"/>
@@ -3574,9 +3658,9 @@
       <c r="F48" s="155"/>
       <c r="G48" s="158"/>
       <c r="H48" s="158"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="168"/>
       <c r="L48" s="153"/>
       <c r="M48" s="153"/>
       <c r="N48" s="153"/>
@@ -3592,9 +3676,9 @@
       <c r="F49" s="155"/>
       <c r="G49" s="158"/>
       <c r="H49" s="158"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
       <c r="L49" s="153"/>
       <c r="M49" s="153"/>
       <c r="N49" s="153"/>
@@ -3614,9 +3698,9 @@
         <v>20</v>
       </c>
       <c r="H50" s="88"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
       <c r="L50" s="153"/>
       <c r="M50" s="153"/>
       <c r="N50" s="153"/>
@@ -3636,9 +3720,9 @@
         <v>4</v>
       </c>
       <c r="H51" s="94"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="168"/>
       <c r="L51" s="153"/>
       <c r="M51" s="153"/>
       <c r="N51" s="153"/>
@@ -3654,9 +3738,9 @@
       <c r="F52" s="157"/>
       <c r="G52" s="157"/>
       <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
+      <c r="I52" s="168"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="168"/>
       <c r="L52" s="157"/>
       <c r="M52" s="157"/>
       <c r="N52" s="157"/>
@@ -3678,9 +3762,9 @@
       <c r="H53" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="168"/>
       <c r="L53" s="153"/>
       <c r="M53" s="153"/>
       <c r="N53" s="153"/>

--- a/Life Of Day요구사항분석서.xlsx
+++ b/Life Of Day요구사항분석서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.88.44548"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.83.44230"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>요구사항 명</t>
   </si>
@@ -642,6 +642,21 @@
   </si>
   <si>
     <t>7.지역별 오전 오후</t>
+  </si>
+  <si>
+    <t>-디자인 참고 사이트 예제 참고</t>
+  </si>
+  <si>
+    <t>-디자인 사이트 예제 참고</t>
+  </si>
+  <si>
+    <t>-디자인 교육 사이트 예제 참고</t>
+  </si>
+  <si>
+    <t>-현재 사는 지역, 가지고 있는 주식이나 코인을</t>
+  </si>
+  <si>
+    <t>-현재 사는 지역, 가지고 있는 주식이나 코인을 사용자로부터 입력받기</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2060,6 +2075,15 @@
     </xf>
     <xf numFmtId="64" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2381,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="G1" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2579,8 +2603,8 @@
       <c r="G6" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="103" t="s">
-        <v>94</v>
+      <c r="H6" s="90" t="s">
+        <v>209</v>
       </c>
       <c r="I6" s="87" t="s">
         <v>15</v>
@@ -2603,7 +2627,9 @@
       <c r="O6" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="153"/>
+      <c r="P6" s="155" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="25.500000" customHeight="1">
       <c r="A7" s="87" t="s">
@@ -2621,7 +2647,7 @@
       <c r="G7" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="90"/>
+      <c r="H7" s="91"/>
       <c r="I7" s="87" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2663,7 @@
       <c r="O7" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="153"/>
+      <c r="P7" s="156"/>
     </row>
     <row r="8" spans="1:18" ht="25.500000" customHeight="1">
       <c r="A8" s="87" t="s">
@@ -2667,7 +2693,7 @@
       <c r="O8" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="153"/>
+      <c r="P8" s="155"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="87"/>
@@ -2685,7 +2711,7 @@
       <c r="M9" s="87"/>
       <c r="N9" s="155"/>
       <c r="O9" s="88"/>
-      <c r="P9" s="153"/>
+      <c r="P9" s="155"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="87"/>
@@ -2716,8 +2742,10 @@
       <c r="N10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="153"/>
+      <c r="O10" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="156"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="87"/>
@@ -2748,8 +2776,10 @@
       <c r="N11" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="88"/>
-      <c r="P11" s="153"/>
+      <c r="O11" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="P11" s="155"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="157"/>
@@ -3534,10 +3564,16 @@
       <c r="P42" s="153"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="153"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
+      <c r="A43" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="88"/>
+      <c r="D43" s="155" t="s">
+        <v>11</v>
+      </c>
       <c r="E43" s="84" t="s">
         <v>0</v>
       </c>
@@ -3558,10 +3594,14 @@
       <c r="P43" s="153"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="153"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
+      <c r="A44" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="85" t="s">
         <v>167</v>
       </c>
@@ -3580,10 +3620,14 @@
       <c r="P44" s="153"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="153"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
+      <c r="A45" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="88"/>
+      <c r="D45" s="155"/>
       <c r="E45" s="86" t="s">
         <v>2</v>
       </c>
@@ -3602,10 +3646,18 @@
       <c r="P45" s="153"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="153"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
+      <c r="A46" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>171</v>
+      </c>
       <c r="E46" s="87" t="s">
         <v>15</v>
       </c>
@@ -3628,10 +3680,12 @@
       <c r="P46" s="153"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="153"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
+      <c r="A47" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="155"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="87" t="s">
         <v>5</v>
       </c>
@@ -3648,10 +3702,16 @@
       <c r="P47" s="153"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="153"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
+      <c r="A48" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="155"/>
+      <c r="C48" s="158" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>151</v>
+      </c>
       <c r="E48" s="87" t="s">
         <v>6</v>
       </c>
@@ -3668,10 +3728,10 @@
       <c r="P48" s="153"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="153"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="87"/>
       <c r="F49" s="155"/>
       <c r="G49" s="158"/>
@@ -3686,10 +3746,14 @@
       <c r="P49" s="153"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="153"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="88"/>
       <c r="E50" s="87"/>
       <c r="F50" s="88" t="s">
         <v>19</v>
@@ -3708,10 +3772,14 @@
       <c r="P50" s="153"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="153"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="94">
+        <v>4</v>
+      </c>
+      <c r="D51" s="94"/>
       <c r="E51" s="87"/>
       <c r="F51" s="88" t="s">
         <v>14</v>
@@ -3752,16 +3820,6 @@
       <c r="B53" s="153"/>
       <c r="C53" s="153"/>
       <c r="D53" s="153"/>
-      <c r="E53" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="88"/>
-      <c r="H53" s="155" t="s">
-        <v>11</v>
-      </c>
       <c r="I53" s="168"/>
       <c r="J53" s="168"/>
       <c r="K53" s="168"/>
@@ -3776,14 +3834,6 @@
       <c r="B54" s="153"/>
       <c r="C54" s="153"/>
       <c r="D54" s="153"/>
-      <c r="E54" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="89"/>
-      <c r="H54" s="156"/>
       <c r="I54" s="153"/>
       <c r="J54" s="153"/>
       <c r="K54" s="153"/>
@@ -3798,14 +3848,6 @@
       <c r="B55" s="153"/>
       <c r="C55" s="153"/>
       <c r="D55" s="153"/>
-      <c r="E55" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="155"/>
       <c r="I55" s="153"/>
       <c r="J55" s="153"/>
       <c r="K55" s="153"/>
@@ -3820,18 +3862,6 @@
       <c r="B56" s="153"/>
       <c r="C56" s="153"/>
       <c r="D56" s="153"/>
-      <c r="E56" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="155" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="109" t="s">
-        <v>171</v>
-      </c>
       <c r="I56" s="153"/>
       <c r="J56" s="153"/>
       <c r="K56" s="153"/>
@@ -3846,12 +3876,6 @@
       <c r="B57" s="153"/>
       <c r="C57" s="153"/>
       <c r="D57" s="153"/>
-      <c r="E57" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="155"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="114"/>
       <c r="I57" s="153"/>
       <c r="J57" s="153"/>
       <c r="K57" s="153"/>
@@ -3866,16 +3890,6 @@
       <c r="B58" s="153"/>
       <c r="C58" s="153"/>
       <c r="D58" s="153"/>
-      <c r="E58" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="155"/>
-      <c r="G58" s="158" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="109" t="s">
-        <v>151</v>
-      </c>
       <c r="I58" s="153"/>
       <c r="J58" s="153"/>
       <c r="K58" s="153"/>
@@ -3890,10 +3904,6 @@
       <c r="B59" s="153"/>
       <c r="C59" s="153"/>
       <c r="D59" s="153"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="114"/>
       <c r="I59" s="153"/>
       <c r="J59" s="153"/>
       <c r="K59" s="153"/>
@@ -3908,14 +3918,6 @@
       <c r="B60" s="153"/>
       <c r="C60" s="153"/>
       <c r="D60" s="153"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="88"/>
       <c r="I60" s="153"/>
       <c r="J60" s="153"/>
       <c r="K60" s="153"/>
@@ -3930,14 +3932,6 @@
       <c r="B61" s="153"/>
       <c r="C61" s="153"/>
       <c r="D61" s="153"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="94">
-        <v>4</v>
-      </c>
-      <c r="H61" s="94"/>
       <c r="I61" s="153"/>
       <c r="J61" s="153"/>
       <c r="K61" s="153"/>
@@ -3948,7 +3942,7 @@
       <c r="P61" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="104">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="I2:L2"/>
@@ -3974,13 +3968,15 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I11"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M11"/>
     <mergeCell ref="N6:N9"/>
+    <mergeCell ref="P6:P8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="P9:P11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="F13:G13"/>
@@ -4032,25 +4028,25 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:D45"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:H45"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E51"/>
     <mergeCell ref="F46:F49"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="H46:H47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
     <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="E56:E61"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
